--- a/data/snt_details.xlsx
+++ b/data/snt_details.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="460" windowWidth="28080" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="1560" yWindow="600" windowWidth="28080" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E132" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231:XFD231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12532,14 +12532,15 @@
       </c>
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A224" s="6">
-        <v>217</v>
-      </c>
+      <c r="A224" s="5">
+        <v>999</v>
+      </c>
+      <c r="B224" s="5"/>
       <c r="C224" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D224" s="6" t="s">
-        <v>32</v>
+      <c r="D224" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>155</v>
@@ -12553,21 +12554,23 @@
       <c r="H224" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="L224" s="14">
-        <v>1560</v>
-      </c>
-      <c r="M224" s="6">
-        <v>1566</v>
-      </c>
-      <c r="N224" s="6">
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="12">
+        <v>1523.538</v>
+      </c>
+      <c r="M224" s="5">
+        <v>1530</v>
+      </c>
+      <c r="N224" s="5">
         <v>6</v>
       </c>
-      <c r="O224" s="10">
-        <f>P223</f>
+      <c r="O224" s="9">
         <v>1528.097</v>
       </c>
       <c r="P224" s="10">
-        <f t="shared" ref="P224:P230" si="0">O224+6</f>
+        <f t="shared" ref="P224:P229" si="0">O224+6</f>
         <v>1534.097</v>
       </c>
       <c r="Q224" s="5">
@@ -12600,21 +12603,22 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
-      <c r="L225" s="12">
-        <v>1523.538</v>
+      <c r="L225" s="13">
+        <v>1530</v>
       </c>
       <c r="M225" s="5">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="N225" s="5">
         <v>6</v>
       </c>
-      <c r="O225" s="9">
-        <v>1528.097</v>
+      <c r="O225" s="10">
+        <f>P224</f>
+        <v>1534.097</v>
       </c>
       <c r="P225" s="10">
         <f t="shared" si="0"/>
-        <v>1534.097</v>
+        <v>1540.097</v>
       </c>
       <c r="Q225" s="5">
         <v>6</v>
@@ -12647,21 +12651,21 @@
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
       <c r="L226" s="13">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="M226" s="5">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="N226" s="5">
         <v>6</v>
       </c>
       <c r="O226" s="10">
         <f>P225</f>
-        <v>1534.097</v>
+        <v>1540.097</v>
       </c>
       <c r="P226" s="10">
         <f t="shared" si="0"/>
-        <v>1540.097</v>
+        <v>1546.097</v>
       </c>
       <c r="Q226" s="5">
         <v>6</v>
@@ -12694,21 +12698,21 @@
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
       <c r="L227" s="13">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="M227" s="5">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="N227" s="5">
         <v>6</v>
       </c>
       <c r="O227" s="10">
         <f>P226</f>
-        <v>1540.097</v>
+        <v>1546.097</v>
       </c>
       <c r="P227" s="10">
         <f t="shared" si="0"/>
-        <v>1546.097</v>
+        <v>1552.097</v>
       </c>
       <c r="Q227" s="5">
         <v>6</v>
@@ -12741,21 +12745,21 @@
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
       <c r="L228" s="13">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="M228" s="5">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="N228" s="5">
         <v>6</v>
       </c>
       <c r="O228" s="10">
         <f>P227</f>
-        <v>1546.097</v>
+        <v>1552.097</v>
       </c>
       <c r="P228" s="10">
         <f t="shared" si="0"/>
-        <v>1552.097</v>
+        <v>1558.097</v>
       </c>
       <c r="Q228" s="5">
         <v>6</v>
@@ -12788,36 +12792,35 @@
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
       <c r="L229" s="13">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="M229" s="5">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="N229" s="5">
         <v>6</v>
       </c>
       <c r="O229" s="10">
         <f>P228</f>
-        <v>1552.097</v>
+        <v>1558.097</v>
       </c>
       <c r="P229" s="10">
         <f t="shared" si="0"/>
-        <v>1558.097</v>
+        <v>1564.097</v>
       </c>
       <c r="Q229" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A230" s="5">
+      <c r="A230" s="6">
         <v>999</v>
       </c>
-      <c r="B230" s="5"/>
       <c r="C230" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D230" s="5" t="s">
-        <v>31</v>
+      <c r="D230" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>155</v>
@@ -12831,25 +12834,21 @@
       <c r="H230" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I230" s="4"/>
-      <c r="J230" s="4"/>
-      <c r="K230" s="4"/>
-      <c r="L230" s="13">
-        <v>1554</v>
-      </c>
-      <c r="M230" s="5">
+      <c r="L230" s="14">
         <v>1560</v>
       </c>
-      <c r="N230" s="5">
+      <c r="M230" s="6">
+        <v>1566</v>
+      </c>
+      <c r="N230" s="6">
         <v>6</v>
       </c>
       <c r="O230" s="10">
-        <f>P229</f>
-        <v>1558.097</v>
+        <v>1564</v>
       </c>
       <c r="P230" s="10">
-        <f t="shared" si="0"/>
-        <v>1564.097</v>
+        <f>O230+6</f>
+        <v>1570</v>
       </c>
       <c r="Q230" s="5">
         <v>6</v>
